--- a/Cyt/Cyt.xlsx
+++ b/Cyt/Cyt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Cyt</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Encoder</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Wrong Output</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,13 @@
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11">
       <c r="E2" t="s">
@@ -380,6 +389,9 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
       <c r="I2" t="s">
         <v>4</v>
       </c>
@@ -394,6 +406,9 @@
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -408,6 +423,9 @@
       <c r="G4">
         <v>6</v>
       </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
       <c r="I4">
         <v>8</v>
       </c>
@@ -422,6 +440,9 @@
       <c r="G5">
         <v>10</v>
       </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
       <c r="I5">
         <v>8</v>
       </c>
@@ -436,6 +457,9 @@
       <c r="G6">
         <v>12</v>
       </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
       <c r="I6">
         <v>12</v>
       </c>
@@ -453,6 +477,9 @@
       <c r="G7">
         <v>14</v>
       </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
       <c r="I7">
         <v>18</v>
       </c>
@@ -470,6 +497,9 @@
       <c r="G8">
         <v>12</v>
       </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
       <c r="I8">
         <v>14</v>
       </c>
@@ -487,6 +517,9 @@
       <c r="G9">
         <v>18</v>
       </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
       <c r="I9">
         <v>24</v>
       </c>
@@ -501,6 +534,9 @@
       <c r="G10">
         <v>20</v>
       </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
       <c r="I10">
         <v>28</v>
       </c>
@@ -515,6 +551,9 @@
       <c r="G11">
         <v>24</v>
       </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
       <c r="I11">
         <v>22</v>
       </c>
@@ -529,6 +568,9 @@
       <c r="G12">
         <v>24</v>
       </c>
+      <c r="H12">
+        <v>24</v>
+      </c>
       <c r="I12">
         <v>30</v>
       </c>
@@ -543,6 +585,9 @@
       <c r="G13">
         <v>30</v>
       </c>
+      <c r="H13">
+        <v>26</v>
+      </c>
       <c r="I13">
         <v>36</v>
       </c>
@@ -557,6 +602,9 @@
       <c r="G14">
         <v>34</v>
       </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
       <c r="I14">
         <v>36</v>
       </c>
@@ -571,6 +619,9 @@
       <c r="G15">
         <v>36</v>
       </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
       <c r="I15">
         <v>34</v>
       </c>
@@ -581,6 +632,9 @@
     <row r="16" spans="2:11">
       <c r="E16">
         <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
       </c>
       <c r="I16">
         <v>32</v>
